--- a/results/byzantine/data/tga_AYB.xlsx
+++ b/results/byzantine/data/tga_AYB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\byzantine\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07EACFE-0102-4271-BAF7-F796E2B6C95D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A698C7-3A53-40E4-8BC4-17E03042FAF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="315" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,27 @@
   </si>
   <si>
     <t>Mass_950</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Byzantine</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>PEM (burnt)</t>
+  </si>
+  <si>
+    <t>PEM</t>
   </si>
 </sst>
 </file>
@@ -158,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +313,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -635,11 +662,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -995,19 +1023,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H1" sqref="H1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1029,8 +1059,14 @@
       <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1052,8 +1088,14 @@
       <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1117,14 @@
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1098,8 +1146,14 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1121,8 +1175,14 @@
       <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1144,8 +1204,14 @@
       <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1167,8 +1233,14 @@
       <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1189,6 +1261,12 @@
       </c>
       <c r="G8" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
